--- a/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BE142C-E61C-4AB1-917E-03F151D8E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D60CA87-84CF-4AE2-A301-48EF86318F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BA7399D7-E82F-4500-AED3-17E9C14C8106}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{347658A7-C5D9-4357-BC5C-F3C43C3D721A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,81 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>97,82%</t>
   </si>
   <si>
@@ -101,9 +170,6 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
@@ -131,49 +197,31 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -221,54 +269,6 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -320,6 +320,72 @@
     <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>99,35%</t>
   </si>
   <si>
@@ -368,40 +434,46 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -446,78 +518,6 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
     <t>98,6%</t>
   </si>
   <si>
@@ -569,6 +569,60 @@
     <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
     <t>96,59%</t>
   </si>
   <si>
@@ -587,9 +641,6 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>96,87%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -608,37 +659,46 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>97,83%</t>
@@ -662,9 +722,6 @@
     <t>97,03%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
     <t>2,17%</t>
   </si>
   <si>
@@ -683,66 +740,9 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
@@ -782,6 +782,66 @@
     <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
     <t>95,18%</t>
   </si>
   <si>
@@ -836,46 +896,52 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>96,44%</t>
@@ -924,72 +990,6 @@
   </si>
   <si>
     <t>5,02%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
   </si>
   <si>
     <t>96,7%</t>
@@ -1423,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C409BE-4065-41FD-9C86-8739E4C70BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F191C8-36E0-45F1-B6B3-594904143FC8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1541,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>207508</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1556,85 +1556,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>192006</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>622</v>
-      </c>
-      <c r="N4" s="7">
-        <v>399513</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4634</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3157</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7792</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,54 +1643,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1702,13 +1702,13 @@
         <v>127633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -1717,13 +1717,13 @@
         <v>114550</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -1732,19 +1732,19 @@
         <v>242183</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1768,13 +1768,13 @@
         <v>1452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1783,13 +1783,13 @@
         <v>1452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1804,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1819,13 +1819,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1834,117 +1834,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D10" s="7">
-        <v>206489</v>
+        <v>207508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="I10" s="7">
-        <v>208537</v>
+        <v>192006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="N10" s="7">
-        <v>415025</v>
+        <v>399513</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>1335</v>
+        <v>4634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>778</v>
+        <v>3157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>2114</v>
+        <v>7792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,123 +1953,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>286991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,150 +2108,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="D16" s="7">
-        <v>149174</v>
+        <v>206489</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>273</v>
+      </c>
+      <c r="I16" s="7">
+        <v>208537</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>577</v>
+      </c>
+      <c r="N16" s="7">
+        <v>415025</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="7">
-        <v>229</v>
-      </c>
-      <c r="I16" s="7">
-        <v>137817</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="7">
-        <v>460</v>
-      </c>
-      <c r="N16" s="7">
-        <v>286991</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1335</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>483</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>778</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2114</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>483</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>75</v>
@@ -2263,49 +2263,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -2424,13 +2424,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2439,13 +2439,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2454,13 +2454,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E4DB7C-88C4-4548-ABE8-2FF8CD8188DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F9246-2E29-4728-8EE8-58CC360C6554}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2599,10 +2599,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>220544</v>
+        <v>24473</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>93</v>
@@ -2611,88 +2611,88 @@
         <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>199492</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46846</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="7">
-        <v>627</v>
-      </c>
-      <c r="N4" s="7">
-        <v>420036</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1434</v>
+        <v>982</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>982</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5906</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7340</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,54 +2701,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2760,13 +2760,13 @@
         <v>126272</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -2775,13 +2775,13 @@
         <v>110952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
         <v>334</v>
@@ -2790,19 +2790,19 @@
         <v>237224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2811,13 +2811,13 @@
         <v>1371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2826,13 +2826,13 @@
         <v>3066</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -2841,13 +2841,13 @@
         <v>4437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2862,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2877,13 +2877,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2892,117 +2892,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>201508</v>
+        <v>220544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>308</v>
+      </c>
+      <c r="I10" s="7">
+        <v>199492</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="7">
+        <v>627</v>
+      </c>
+      <c r="N10" s="7">
+        <v>420036</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H10" s="7">
-        <v>268</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204668</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="7">
-        <v>541</v>
-      </c>
-      <c r="N10" s="7">
-        <v>406175</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>5574</v>
+        <v>1434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5906</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="7">
+        <v>11</v>
+      </c>
+      <c r="N11" s="7">
+        <v>7340</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5632</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>11207</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,150 +3011,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="D13" s="7">
-        <v>24473</v>
+        <v>164872</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>235</v>
+      </c>
+      <c r="I13" s="7">
+        <v>151166</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>488</v>
+      </c>
+      <c r="N13" s="7">
+        <v>316038</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>53</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46846</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>982</v>
+        <v>1113</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3673</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>142</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>982</v>
+        <v>4786</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>144</v>
@@ -3166,78 +3166,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D16" s="7">
-        <v>164872</v>
+        <v>201508</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="7">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="I16" s="7">
-        <v>151166</v>
+        <v>204668</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>147</v>
@@ -3249,46 +3249,46 @@
         <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="N16" s="7">
-        <v>316038</v>
+        <v>406175</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>1113</v>
+        <v>5574</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>3673</v>
+        <v>5632</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>154</v>
@@ -3300,16 +3300,16 @@
         <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>4786</v>
+        <v>11207</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>158</v>
@@ -3321,49 +3321,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3401,7 @@
         <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>2043</v>
@@ -3422,7 +3422,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>15</v>
@@ -3449,7 +3449,7 @@
         <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>171</v>
@@ -3482,13 +3482,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3497,13 +3497,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3512,13 +3512,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4D2FC-00C5-4633-BA2C-A2FEE306214F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09834402-E3BD-4B68-8925-21CAE10771E6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,100 +3657,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>221010</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="7">
-        <v>327</v>
-      </c>
-      <c r="I4" s="7">
-        <v>202921</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48101</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="7">
-        <v>654</v>
-      </c>
-      <c r="N4" s="7">
-        <v>423931</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3349</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>4326</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>7675</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,54 +3759,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3818,13 +3818,13 @@
         <v>120227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3833,13 +3833,13 @@
         <v>111180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -3848,19 +3848,19 @@
         <v>231407</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -3869,13 +3869,13 @@
         <v>2275</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3884,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3899,13 +3899,13 @@
         <v>2275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3920,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3935,13 +3935,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3950,117 +3950,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7">
-        <v>201265</v>
+        <v>221010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="I10" s="7">
-        <v>205169</v>
+        <v>202921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>562</v>
+        <v>654</v>
       </c>
       <c r="N10" s="7">
-        <v>406434</v>
+        <v>423931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4471</v>
+        <v>3349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>2251</v>
+        <v>4326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>6722</v>
+        <v>7675</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,153 +4069,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>164062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>153302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>317364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2695</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5306</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,150 +4224,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D16" s="7">
-        <v>164062</v>
+        <v>201265</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>278</v>
+      </c>
+      <c r="I16" s="7">
+        <v>205169</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H16" s="7">
-        <v>254</v>
-      </c>
-      <c r="I16" s="7">
-        <v>153302</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>562</v>
+      </c>
+      <c r="N16" s="7">
+        <v>406434</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="7">
-        <v>498</v>
-      </c>
-      <c r="N16" s="7">
-        <v>317364</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2611</v>
+        <v>4471</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2251</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2695</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>5306</v>
+        <v>6722</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>233</v>
@@ -4379,49 +4379,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>238</v>
@@ -4468,19 +4468,19 @@
         <v>1427237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>18</v>
@@ -4510,7 +4510,7 @@
         <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -4519,10 +4519,10 @@
         <v>21978</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>245</v>
@@ -4540,13 +4540,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4555,13 +4555,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4570,13 +4570,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4597,7 +4597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634B09C-B05C-4B3E-959A-5854B8FF8825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92C5341-FD55-4FF2-A833-528B9D5464C0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4715,100 +4715,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>238124</v>
+        <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16787</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29485</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="7">
-        <v>272</v>
-      </c>
-      <c r="I4" s="7">
-        <v>187031</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M4" s="7">
-        <v>599</v>
-      </c>
-      <c r="N4" s="7">
-        <v>425154</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>12062</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>5321</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>17384</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,54 +4817,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4876,10 +4876,10 @@
         <v>113146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>80</v>
@@ -4891,13 +4891,13 @@
         <v>99778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>312</v>
@@ -4906,19 +4906,19 @@
         <v>212924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4927,13 +4927,13 @@
         <v>1450</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4942,13 +4942,13 @@
         <v>4117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4957,13 +4957,13 @@
         <v>5566</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4978,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -4993,13 +4993,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5008,117 +5008,117 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7">
-        <v>168786</v>
+        <v>238124</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>167144</v>
+        <v>187031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>463</v>
+        <v>599</v>
       </c>
       <c r="N10" s="7">
-        <v>335929</v>
+        <v>425154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12062</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
-        <v>6230</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
       <c r="I11" s="7">
-        <v>4799</v>
+        <v>5321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>11029</v>
+        <v>17384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,150 +5127,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7">
-        <v>12698</v>
+        <v>168976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>16787</v>
+        <v>159426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="N13" s="7">
-        <v>29485</v>
+        <v>328402</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="7">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8476</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="7">
+        <v>19</v>
+      </c>
+      <c r="N14" s="7">
+        <v>12708</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>300</v>
@@ -5282,81 +5282,81 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D16" s="7">
-        <v>168976</v>
+        <v>168786</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="I16" s="7">
-        <v>159426</v>
+        <v>167144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>304</v>
@@ -5365,10 +5365,10 @@
         <v>305</v>
       </c>
       <c r="M16" s="7">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="N16" s="7">
-        <v>328402</v>
+        <v>335929</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>306</v>
@@ -5383,13 +5383,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>4232</v>
+        <v>6230</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>309</v>
@@ -5398,16 +5398,16 @@
         <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>8476</v>
+        <v>4799</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>312</v>
@@ -5416,10 +5416,10 @@
         <v>313</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>12708</v>
+        <v>11029</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>314</v>
@@ -5437,49 +5437,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,7 +5502,7 @@
         <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>910</v>
@@ -5511,7 +5511,7 @@
         <v>630166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>319</v>
@@ -5538,7 +5538,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>34</v>
@@ -5550,7 +5550,7 @@
         <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>325</v>
@@ -5562,7 +5562,7 @@
         <v>22713</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>326</v>
@@ -5598,13 +5598,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5613,13 +5613,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1919</v>
@@ -5628,13 +5628,13 @@
         <v>1378583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D60CA87-84CF-4AE2-A301-48EF86318F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA43008-FAEB-4061-9F96-F5691C04EDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{347658A7-C5D9-4357-BC5C-F3C43C3D721A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C3A4143-D71F-4625-998E-31B5C843F57A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="340">
   <si>
     <t>Menores según si padecen trastornos crónicos de la piel en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,73 +107,79 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>97,7%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,34%</t>
+    <t>96,69%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -164,841 +188,868 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>96,79%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>97,62%</t>
@@ -1007,31 +1058,7 @@
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>95,74%</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1069,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1138,39 +1165,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1222,7 +1249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1333,13 +1360,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1348,6 +1368,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1412,19 +1439,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F191C8-36E0-45F1-B6B3-594904143FC8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBD4FFA-8685-475A-A54B-89D74CAF24B5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1541,10 +1588,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1556,34 +1603,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1592,10 +1639,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1607,34 +1654,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1696,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1664,13 +1711,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1679,13 +1726,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,49 +1743,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127633</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>114550</v>
+        <v>1452</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>242183</v>
+        <v>1452</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,49 +1794,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127633</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7">
-        <v>1452</v>
+        <v>114550</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="N8" s="7">
-        <v>1452</v>
+        <v>242183</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1851,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1819,13 +1866,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1834,13 +1881,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>315</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>207508</v>
+        <v>4634</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1866,10 +1913,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>192006</v>
+        <v>3157</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -1881,10 +1928,10 @@
         <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>622</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>399513</v>
+        <v>7792</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1893,7 +1940,7 @@
         <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,49 +1949,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="D11" s="7">
-        <v>4634</v>
+        <v>207508</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>307</v>
+      </c>
+      <c r="I11" s="7">
+        <v>192006</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3157</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>622</v>
+      </c>
+      <c r="N11" s="7">
+        <v>399513</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7792</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,13 +2006,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1974,13 +2021,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1989,66 +2036,66 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>149174</v>
+        <v>483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>483</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>460</v>
-      </c>
-      <c r="N13" s="7">
-        <v>286991</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,49 +2104,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>483</v>
+        <v>149174</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>483</v>
+        <v>286991</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2161,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -2129,13 +2176,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -2144,13 +2191,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,40 +2208,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>206489</v>
+        <v>1335</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>208537</v>
+        <v>778</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>577</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>415025</v>
+        <v>2114</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>66</v>
@@ -2212,40 +2259,40 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="D17" s="7">
-        <v>1335</v>
+        <v>206489</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I17" s="7">
-        <v>778</v>
+        <v>208537</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>577</v>
       </c>
       <c r="N17" s="7">
-        <v>2114</v>
+        <v>415025</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>73</v>
@@ -2269,13 +2316,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -2284,13 +2331,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -2299,13 +2346,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,10 +2363,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1076</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>716247</v>
+        <v>6453</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>76</v>
@@ -2331,34 +2378,34 @@
         <v>78</v>
       </c>
       <c r="H19" s="7">
-        <v>1010</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>675634</v>
+        <v>5387</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
-        <v>2086</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>1391881</v>
+        <v>11840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,49 +2414,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>1076</v>
       </c>
       <c r="D20" s="7">
-        <v>6453</v>
+        <v>716247</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1010</v>
+      </c>
+      <c r="I20" s="7">
+        <v>675634</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5387</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>2086</v>
       </c>
       <c r="N20" s="7">
-        <v>11840</v>
+        <v>1391881</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2471,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2439,13 +2486,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2454,13 +2501,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2481,8 +2533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F9246-2E29-4728-8EE8-58CC360C6554}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAFE9A8-80E4-40D9-BB94-4FABAC7D329F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2498,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2599,49 +2651,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>24473</v>
+        <v>982</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>982</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>46846</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,49 +2702,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>982</v>
+        <v>24473</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>46846</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>982</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2759,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2722,13 +2774,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2737,13 +2789,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,49 +2806,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>126272</v>
+        <v>1371</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3066</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>155</v>
-      </c>
-      <c r="I7" s="7">
-        <v>110952</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="M7" s="7">
-        <v>334</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>237224</v>
+        <v>4437</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,49 +2857,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D8" s="7">
-        <v>1371</v>
+        <v>126272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="I8" s="7">
-        <v>3066</v>
+        <v>110952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="N8" s="7">
-        <v>4437</v>
+        <v>237224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2914,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2877,13 +2929,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2892,13 +2944,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,49 +2961,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>220544</v>
+        <v>1434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5906</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="7">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>308</v>
-      </c>
-      <c r="I10" s="7">
-        <v>199492</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="7">
-        <v>627</v>
-      </c>
       <c r="N10" s="7">
-        <v>420036</v>
+        <v>7340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,49 +3012,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>1434</v>
+        <v>220543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="I11" s="7">
-        <v>5906</v>
+        <v>199492</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>627</v>
       </c>
       <c r="N11" s="7">
-        <v>7340</v>
+        <v>420036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,16 +3066,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -3032,13 +3084,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -3047,66 +3099,66 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>164872</v>
+        <v>1113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>151166</v>
+        <v>3673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
-        <v>488</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>316038</v>
+        <v>4786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,49 +3167,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="D14" s="7">
-        <v>1113</v>
+        <v>164872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>3673</v>
+        <v>151166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>488</v>
       </c>
       <c r="N14" s="7">
-        <v>4786</v>
+        <v>316038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3224,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -3187,13 +3239,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -3202,13 +3254,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,49 +3271,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>273</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>201508</v>
+        <v>5574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>268</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>204668</v>
+        <v>5632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
-        <v>541</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>406175</v>
+        <v>11207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,49 +3322,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="D17" s="7">
-        <v>5574</v>
+        <v>201508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="I17" s="7">
-        <v>5632</v>
+        <v>204668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>541</v>
       </c>
       <c r="N17" s="7">
-        <v>11207</v>
+        <v>406175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3379,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -3342,13 +3394,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -3357,13 +3409,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1051</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>737669</v>
+        <v>10473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
-        <v>992</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>688650</v>
+        <v>18278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
-        <v>2043</v>
+        <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>1426319</v>
+        <v>28751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,49 +3477,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>1051</v>
       </c>
       <c r="D20" s="7">
-        <v>10473</v>
+        <v>737669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>992</v>
       </c>
       <c r="I20" s="7">
-        <v>18278</v>
+        <v>688650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
-        <v>41</v>
+        <v>2043</v>
       </c>
       <c r="N20" s="7">
-        <v>28751</v>
+        <v>1426319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3534,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3497,13 +3549,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3512,13 +3564,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3539,8 +3596,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09834402-E3BD-4B68-8925-21CAE10771E6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC124CE-F644-4EC5-B27A-57BDEE730A90}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3556,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3657,49 +3714,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,49 +3765,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3822,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3780,13 +3837,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3795,13 +3852,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,49 +3869,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>120227</v>
+        <v>2275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>231407</v>
+        <v>2275</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,49 +3920,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="D8" s="7">
-        <v>2275</v>
+        <v>120227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="N8" s="7">
-        <v>2275</v>
+        <v>231407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3977,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3935,13 +3992,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3950,13 +4007,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,49 +4024,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>221010</v>
+        <v>3349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>202921</v>
+        <v>4326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>654</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>423931</v>
+        <v>7675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,49 +4075,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="D11" s="7">
-        <v>3349</v>
+        <v>221010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="I11" s="7">
-        <v>4326</v>
+        <v>202921</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>654</v>
       </c>
       <c r="N11" s="7">
-        <v>7675</v>
+        <v>423931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4132,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -4090,13 +4147,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -4105,66 +4162,66 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>164062</v>
+        <v>2611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>153302</v>
+        <v>2695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>317364</v>
+        <v>5306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,49 +4230,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>2611</v>
+        <v>164062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>2695</v>
+        <v>153302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="N14" s="7">
-        <v>5306</v>
+        <v>317364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4287,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -4245,13 +4302,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -4260,13 +4317,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,49 +4334,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>284</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>201265</v>
+        <v>4471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>205169</v>
+        <v>2251</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
-        <v>562</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>406434</v>
+        <v>6722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,49 +4385,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="D17" s="7">
-        <v>4471</v>
+        <v>201265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="I17" s="7">
-        <v>2251</v>
+        <v>205169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>562</v>
       </c>
       <c r="N17" s="7">
-        <v>6722</v>
+        <v>406434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4442,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -4400,13 +4457,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -4415,13 +4472,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,49 +4489,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1047</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>732138</v>
+        <v>12706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
-        <v>1046</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>695098</v>
+        <v>9273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
-        <v>2093</v>
+        <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>1427237</v>
+        <v>21978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,49 +4540,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>1047</v>
       </c>
       <c r="D20" s="7">
-        <v>12706</v>
+        <v>732138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>1046</v>
       </c>
       <c r="I20" s="7">
-        <v>9273</v>
+        <v>695098</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
-        <v>33</v>
+        <v>2093</v>
       </c>
       <c r="N20" s="7">
-        <v>21978</v>
+        <v>1427237</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4597,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4555,13 +4612,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4570,13 +4627,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4597,8 +4659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92C5341-FD55-4FF2-A833-528B9D5464C0}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C69DA7-87CB-4A2D-95F2-3E392A77003A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4614,7 +4676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4715,49 +4777,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,49 +4828,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>29485</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4885,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4838,13 +4900,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4853,13 +4915,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,49 +4932,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>113146</v>
+        <v>1450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>99778</v>
+        <v>4117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
-        <v>312</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>212924</v>
+        <v>5566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,49 +4983,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
-        <v>1450</v>
+        <v>113146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>4117</v>
+        <v>99778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>312</v>
       </c>
       <c r="N8" s="7">
-        <v>5566</v>
+        <v>212924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +5040,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -4993,13 +5055,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5008,13 +5070,13 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5087,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>238124</v>
+        <v>12062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>187031</v>
+        <v>5321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
-        <v>599</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>425154</v>
+        <v>17384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5138,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="D11" s="7">
-        <v>12062</v>
+        <v>238124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>5321</v>
+        <v>187031</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>599</v>
       </c>
       <c r="N11" s="7">
-        <v>17384</v>
+        <v>425154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5195,13 @@
         <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>280</v>
@@ -5148,13 +5210,13 @@
         <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>623</v>
@@ -5163,66 +5225,66 @@
         <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>168976</v>
+        <v>4232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>159426</v>
+        <v>8476</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>328402</v>
+        <v>12708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,49 +5293,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>4232</v>
+        <v>168976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I14" s="7">
-        <v>8476</v>
+        <v>159426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>432</v>
       </c>
       <c r="N14" s="7">
-        <v>12708</v>
+        <v>328402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5350,13 @@
         <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>226</v>
@@ -5303,13 +5365,13 @@
         <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>451</v>
@@ -5318,13 +5380,13 @@
         <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,49 +5397,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>168786</v>
+        <v>6230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>167144</v>
+        <v>4799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
-        <v>463</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>335929</v>
+        <v>11029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,49 +5448,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>6230</v>
+        <v>168786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="I17" s="7">
-        <v>4799</v>
+        <v>167144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>463</v>
       </c>
       <c r="N17" s="7">
-        <v>11029</v>
+        <v>335929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5505,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -5458,13 +5520,13 @@
         <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -5473,13 +5535,13 @@
         <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,49 +5552,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>943</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>701730</v>
+        <v>23974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
-        <v>910</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>630166</v>
+        <v>22713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
-        <v>1853</v>
+        <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>1331896</v>
+        <v>46687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,49 +5603,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>23974</v>
+        <v>701730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
-        <v>32</v>
+        <v>910</v>
       </c>
       <c r="I20" s="7">
-        <v>22713</v>
+        <v>630166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
-        <v>66</v>
+        <v>1853</v>
       </c>
       <c r="N20" s="7">
-        <v>46687</v>
+        <v>1331896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5660,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5613,13 +5675,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1919</v>
@@ -5628,13 +5690,18 @@
         <v>1378583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA43008-FAEB-4061-9F96-F5691C04EDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E44021D-1802-4937-84E7-3B03EFB6A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C3A4143-D71F-4625-998E-31B5C843F57A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0558E6B-A428-42FA-8702-E1C0AE65DFEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -122,7 +122,7 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>99,01%</t>
@@ -137,919 +137,919 @@
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>97,62%</t>
@@ -1058,7 +1058,7 @@
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBD4FFA-8685-475A-A54B-89D74CAF24B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E23C5C-8A83-4271-8563-81A216ACDAC0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,10 +1922,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1934,13 +1934,13 @@
         <v>7792</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
         <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -1985,10 +1985,10 @@
         <v>399513</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>49</v>
@@ -2387,10 +2387,10 @@
         <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2402,10 +2402,10 @@
         <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7">
         <v>2086</v>
@@ -2453,7 +2453,7 @@
         <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>89</v>
@@ -2533,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAFE9A8-80E4-40D9-BB94-4FABAC7D329F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CAF54-1796-4729-B319-6026FA094BA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,10 +3000,10 @@
         <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3015,13 @@
         <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>220543</v>
+        <v>220544</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3033,13 +3033,13 @@
         <v>199492</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -3048,13 +3048,13 @@
         <v>420036</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,7 +3066,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3122,13 +3122,13 @@
         <v>1113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3137,13 +3137,13 @@
         <v>3673</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3152,13 +3152,13 @@
         <v>4786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,10 +3173,10 @@
         <v>164872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3188,13 +3188,13 @@
         <v>151166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>488</v>
@@ -3203,13 +3203,13 @@
         <v>316038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,10 +3280,10 @@
         <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3292,13 +3292,13 @@
         <v>5632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3307,13 +3307,13 @@
         <v>11207</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,10 +3331,10 @@
         <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -3343,13 +3343,13 @@
         <v>204668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>541</v>
@@ -3358,13 +3358,13 @@
         <v>406175</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3432,13 @@
         <v>10473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3447,13 +3447,13 @@
         <v>18278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3462,13 +3462,13 @@
         <v>28751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>737669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>992</v>
@@ -3498,13 +3498,13 @@
         <v>688650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>2043</v>
@@ -3513,13 +3513,13 @@
         <v>1426319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC124CE-F644-4EC5-B27A-57BDEE730A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51AD34-3989-4BBD-B495-1DB98DB09F1F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3613,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3726,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,7 +3774,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3789,7 +3789,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3804,7 +3804,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3875,13 +3875,13 @@
         <v>2275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3905,13 +3905,13 @@
         <v>2275</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3926,13 @@
         <v>120227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>163</v>
@@ -3944,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3956,13 +3956,13 @@
         <v>231407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4030,13 @@
         <v>3349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4045,13 +4045,13 @@
         <v>4326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4060,13 +4060,13 @@
         <v>7675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4081,13 @@
         <v>221010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -4096,13 +4096,13 @@
         <v>202921</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -4111,13 +4111,13 @@
         <v>423931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4185,13 @@
         <v>2611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4200,13 +4200,13 @@
         <v>2695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4215,13 +4215,13 @@
         <v>5306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4236,13 @@
         <v>164062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -4251,13 +4251,13 @@
         <v>153302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -4266,13 +4266,13 @@
         <v>317364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4340,13 @@
         <v>4471</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4355,13 +4355,13 @@
         <v>2251</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4373,10 +4373,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4391,13 @@
         <v>201265</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>278</v>
@@ -4406,13 +4406,13 @@
         <v>205169</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>562</v>
@@ -4424,10 +4424,10 @@
         <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4495,13 @@
         <v>12706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4510,10 +4510,10 @@
         <v>9273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>241</v>
@@ -4525,13 +4525,13 @@
         <v>21978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4546,13 @@
         <v>732138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>1046</v>
@@ -4561,13 +4561,13 @@
         <v>695098</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>2093</v>
@@ -4576,13 +4576,13 @@
         <v>1427237</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C69DA7-87CB-4A2D-95F2-3E392A77003A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06298AEE-B6CC-4D97-8B3C-76BC6E554FF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4676,7 +4676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4789,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,7 +4837,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4852,7 +4852,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4867,7 +4867,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4938,13 +4938,13 @@
         <v>1450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4953,13 +4953,13 @@
         <v>4117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4968,10 +4968,10 @@
         <v>5566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>266</v>
@@ -4995,7 +4995,7 @@
         <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7">
         <v>163</v>
@@ -5004,13 +5004,13 @@
         <v>99778</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -5019,13 +5019,13 @@
         <v>212924</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5093,13 @@
         <v>12062</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5108,13 +5108,13 @@
         <v>5321</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5123,13 +5123,13 @@
         <v>17384</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5144,13 @@
         <v>238124</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H11" s="7">
         <v>272</v>
@@ -5159,13 +5159,13 @@
         <v>187031</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -5248,10 +5248,10 @@
         <v>4232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>293</v>
@@ -5299,13 +5299,13 @@
         <v>168976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>214</v>
@@ -5573,7 +5573,7 @@
         <v>22713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>329</v>
@@ -5591,7 +5591,7 @@
         <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>332</v>
@@ -5624,7 +5624,7 @@
         <v>630166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>336</v>
@@ -5645,7 +5645,7 @@
         <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E44021D-1802-4937-84E7-3B03EFB6A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DDBEB5-9021-4F59-BDB0-35E7440B463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0558E6B-A428-42FA-8702-E1C0AE65DFEE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{36A43716-9D45-4BAB-8974-D08EE64E73B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="303">
   <si>
     <t>Menores según si padecen trastornos crónicos de la piel en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,997 +68,886 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,04%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -1470,8 +1359,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E23C5C-8A83-4271-8563-81A216ACDAC0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A8E904-5430-4A54-A019-4A5FBBDC195D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1588,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1609,79 +1498,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>137274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>290351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,153 +1579,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4634</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1452</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
       <c r="N7" s="7">
-        <v>1452</v>
+        <v>7792</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="D8" s="7">
-        <v>127633</v>
+        <v>192006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="I8" s="7">
-        <v>114550</v>
+        <v>207508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>365</v>
+        <v>622</v>
       </c>
       <c r="N8" s="7">
-        <v>242183</v>
+        <v>399513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,153 +1734,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4634</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3157</v>
+        <v>483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>483</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="7">
-        <v>7792</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>207508</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="I11" s="7">
-        <v>192006</v>
+        <v>149174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>622</v>
+        <v>460</v>
       </c>
       <c r="N11" s="7">
-        <v>399513</v>
+        <v>286991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,54 +1889,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2056,97 +1945,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>483</v>
+        <v>778</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>483</v>
+        <v>2114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>149174</v>
+        <v>208537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>206489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>577</v>
       </c>
       <c r="N14" s="7">
-        <v>286991</v>
+        <v>415025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,153 +2044,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>1335</v>
+        <v>5387</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>778</v>
+        <v>6453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>2114</v>
+        <v>11840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>304</v>
+        <v>1010</v>
       </c>
       <c r="D17" s="7">
-        <v>206489</v>
+        <v>675634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>1076</v>
       </c>
       <c r="I17" s="7">
-        <v>208537</v>
+        <v>716247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>577</v>
+        <v>2086</v>
       </c>
       <c r="N17" s="7">
-        <v>415025</v>
+        <v>1391881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,217 +2199,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6453</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5387</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" s="7">
-        <v>18</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11840</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1076</v>
-      </c>
-      <c r="D20" s="7">
-        <v>716247</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1010</v>
-      </c>
-      <c r="I20" s="7">
-        <v>675634</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2086</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1391881</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2533,8 +2266,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CAF54-1796-4729-B319-6026FA094BA0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D344D-5961-4B94-9221-D5A267FB7D38}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2550,7 +2283,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2651,100 +2384,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>982</v>
+        <v>3066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>982</v>
+        <v>5418</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>24473</v>
+        <v>133325</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="7">
+        <v>206</v>
+      </c>
+      <c r="I5" s="7">
+        <v>150746</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="7">
+        <v>387</v>
+      </c>
+      <c r="N5" s="7">
+        <v>284071</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>53</v>
-      </c>
-      <c r="N5" s="7">
-        <v>46846</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,153 +2486,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5906</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>1371</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>1434</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3066</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="N7" s="7">
+        <v>7340</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="M7" s="7">
-        <v>6</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4437</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7">
-        <v>126272</v>
+        <v>199492</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="7">
+        <v>319</v>
+      </c>
+      <c r="I8" s="7">
+        <v>220543</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>155</v>
-      </c>
-      <c r="I8" s="7">
-        <v>110952</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>627</v>
+      </c>
+      <c r="N8" s="7">
+        <v>420036</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="M8" s="7">
-        <v>334</v>
-      </c>
-      <c r="N8" s="7">
-        <v>237224</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,153 +2641,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3673</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1434</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>1113</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5906</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4786</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7340</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7">
-        <v>220544</v>
+        <v>151166</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="7">
+        <v>253</v>
+      </c>
+      <c r="I11" s="7">
+        <v>164872</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>308</v>
-      </c>
-      <c r="I11" s="7">
-        <v>199492</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>488</v>
+      </c>
+      <c r="N11" s="7">
+        <v>316038</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="7">
-        <v>627</v>
-      </c>
-      <c r="N11" s="7">
-        <v>420036</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,153 +2796,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>1113</v>
+        <v>5632</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5574</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3673</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>11207</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4786</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>164872</v>
+        <v>204668</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>273</v>
+      </c>
+      <c r="I14" s="7">
+        <v>201508</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>235</v>
-      </c>
-      <c r="I14" s="7">
-        <v>151166</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>541</v>
+      </c>
+      <c r="N14" s="7">
+        <v>406175</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="7">
-        <v>488</v>
-      </c>
-      <c r="N14" s="7">
-        <v>316038</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,96 +2951,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>5574</v>
+        <v>18278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10473</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5632</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28751</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11207</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>151</v>
@@ -3319,28 +3052,28 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>273</v>
+        <v>992</v>
       </c>
       <c r="D17" s="7">
-        <v>201508</v>
+        <v>688650</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="H17" s="7">
-        <v>268</v>
+        <v>1051</v>
       </c>
       <c r="I17" s="7">
-        <v>204668</v>
+        <v>737669</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>155</v>
@@ -3352,19 +3085,19 @@
         <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>541</v>
+        <v>2043</v>
       </c>
       <c r="N17" s="7">
-        <v>406175</v>
+        <v>1426319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,217 +3106,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10473</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="7">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18278</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="7">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7">
-        <v>28751</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1051</v>
-      </c>
-      <c r="D20" s="7">
-        <v>737669</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="7">
-        <v>992</v>
-      </c>
-      <c r="I20" s="7">
-        <v>688650</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2043</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1426319</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3596,8 +3173,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51AD34-3989-4BBD-B495-1DB98DB09F1F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B365C7-0172-4734-A6E9-4A2214E96098}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3613,7 +3190,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3720,94 +3297,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>145801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>279508</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,153 +3393,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>2275</v>
+        <v>4326</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="7">
         <v>12</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3</v>
-      </c>
       <c r="N7" s="7">
-        <v>2275</v>
+        <v>7675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="D8" s="7">
-        <v>120227</v>
+        <v>202921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>221010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>325</v>
+        <v>654</v>
       </c>
       <c r="N8" s="7">
-        <v>231407</v>
+        <v>423931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,54 +3548,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4027,97 +3604,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3349</v>
+        <v>2695</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>4326</v>
+        <v>2611</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>7675</v>
+        <v>5306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>221010</v>
+        <v>153302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="I11" s="7">
-        <v>202921</v>
+        <v>164062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
-        <v>654</v>
+        <v>498</v>
       </c>
       <c r="N11" s="7">
-        <v>423931</v>
+        <v>317364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,153 +3703,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2611</v>
+        <v>2251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>2695</v>
+        <v>4471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>5306</v>
+        <v>6722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>164062</v>
+        <v>205169</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="7">
+        <v>284</v>
+      </c>
+      <c r="I14" s="7">
+        <v>201265</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M14" s="7">
+        <v>562</v>
+      </c>
+      <c r="N14" s="7">
+        <v>406434</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="7">
-        <v>254</v>
-      </c>
-      <c r="I14" s="7">
-        <v>153302</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7">
-        <v>498</v>
-      </c>
-      <c r="N14" s="7">
-        <v>317364</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,153 +3858,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>4471</v>
+        <v>9273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>2251</v>
+        <v>12706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>6722</v>
+        <v>21978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>284</v>
+        <v>1046</v>
       </c>
       <c r="D17" s="7">
-        <v>201265</v>
+        <v>695098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
-        <v>278</v>
+        <v>1047</v>
       </c>
       <c r="I17" s="7">
-        <v>205169</v>
+        <v>732138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
-        <v>562</v>
+        <v>2093</v>
       </c>
       <c r="N17" s="7">
-        <v>406434</v>
+        <v>1427237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,217 +4013,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7">
-        <v>12706</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9273</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M19" s="7">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7">
-        <v>21978</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1047</v>
-      </c>
-      <c r="D20" s="7">
-        <v>732138</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1046</v>
-      </c>
-      <c r="I20" s="7">
-        <v>695098</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1427237</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4659,8 +4080,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06298AEE-B6CC-4D97-8B3C-76BC6E554FF5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF2144B-D6E1-4E8C-9B4E-FE6368E7AC22}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4676,7 +4097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,100 +4198,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4092</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D5" s="7">
-        <v>12698</v>
+        <v>113188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="I5" s="7">
-        <v>16787</v>
+        <v>138922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="N5" s="7">
-        <v>29485</v>
+        <v>252111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,153 +4300,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>1450</v>
+        <v>5311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>4117</v>
+        <v>12430</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>5566</v>
+        <v>17741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>113146</v>
+        <v>185201</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="I8" s="7">
-        <v>99778</v>
+        <v>242605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="N8" s="7">
-        <v>212924</v>
+        <v>427807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,153 +4455,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>12062</v>
+        <v>8342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5321</v>
+        <v>4384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>17384</v>
+        <v>12725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>327</v>
+        <v>214</v>
       </c>
       <c r="D11" s="7">
-        <v>238124</v>
+        <v>181243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>187031</v>
+        <v>180902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="N11" s="7">
-        <v>425154</v>
+        <v>362146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,54 +4610,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5245,97 +4666,97 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>4232</v>
+        <v>4586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>8476</v>
+        <v>6468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>12708</v>
+        <v>11054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>168976</v>
+        <v>163376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>159426</v>
+        <v>174770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>328402</v>
+        <v>338147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,153 +4765,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>6230</v>
+        <v>22331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>4799</v>
+        <v>24771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>11029</v>
+        <v>47102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>230</v>
+        <v>910</v>
       </c>
       <c r="D17" s="7">
-        <v>168786</v>
+        <v>643009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
-        <v>233</v>
+        <v>943</v>
       </c>
       <c r="I17" s="7">
-        <v>167144</v>
+        <v>737201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
-        <v>463</v>
+        <v>1853</v>
       </c>
       <c r="N17" s="7">
-        <v>335929</v>
+        <v>1380210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,217 +4920,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7">
-        <v>23974</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22713</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M19" s="7">
-        <v>66</v>
-      </c>
-      <c r="N19" s="7">
-        <v>46687</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>943</v>
-      </c>
-      <c r="D20" s="7">
-        <v>701730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="7">
-        <v>910</v>
-      </c>
-      <c r="I20" s="7">
-        <v>630166</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1853</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1331896</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>977</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
